--- a/test/NetCashACH_AIGen14_.xlsx
+++ b/test/NetCashACH_AIGen14_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\dev1\crm\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9622ED8E-0A1D-49BA-AAF2-DEF8840A75CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FC944D-827A-4DBA-BE46-E96F14906BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E15220EF-D858-4C01-941F-8FE4BDEF97A4}"/>
+    <workbookView xWindow="-22572" yWindow="216" windowWidth="22056" windowHeight="12732" xr2:uid="{E15220EF-D858-4C01-941F-8FE4BDEF97A4}"/>
   </bookViews>
   <sheets>
     <sheet name="E-Check" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>Customer Account</t>
   </si>
@@ -169,13 +169,40 @@
   </si>
   <si>
     <t>1920 Cosmos Boulevard Suite 808, Aurora Boulevard, Olympus Mons, Pluto</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1037</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +222,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,13 +250,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,290 +572,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F852903C-3D9B-4ED8-8E7C-0C01CA577F6E}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="74.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="74.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2">
         <v>23456</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>5000</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
         <v>54321</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>250</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2">
         <v>12345</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>8000</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2">
         <v>23456</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>1500</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2">
         <v>34567</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>300</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2">
         <v>45678</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>2000</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2">
         <v>56789</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>150</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2">
         <v>12345</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>2000</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <f>SUM(B2:B9)</f>
+        <f>SUM(C2:C9)</f>
         <v>19200</v>
       </c>
       <c r="C10" s="2">
@@ -831,6 +892,7 @@
       <c r="E10" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
